--- a/project/LOCATIONS.xlsx
+++ b/project/LOCATIONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skato\Desktop\CNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\cnet\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB5C2B-E933-47B5-97FE-99FAEFA998F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74AC9B-C5FF-4CBF-A972-CCA743E502EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{50D19D0A-85DB-4308-BBEB-23678930A779}"/>
   </bookViews>
@@ -365,17 +365,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1382,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D02CA5E-5701-4112-9A13-80A549E559A2}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,22 +2269,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A47:A65"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A16:A32"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A47:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,7 +2378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B65:B1048576 B1:B3 B6:B9">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C1048576 C1:C9">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>

--- a/project/LOCATIONS.xlsx
+++ b/project/LOCATIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\cnet\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74AC9B-C5FF-4CBF-A972-CCA743E502EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AB529-253C-45C7-BEA0-B2B668BBE387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{50D19D0A-85DB-4308-BBEB-23678930A779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{50D19D0A-85DB-4308-BBEB-23678930A779}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOCKS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>K-BLOCK</t>
   </si>
@@ -278,6 +278,69 @@
   </si>
   <si>
     <t>position</t>
+  </si>
+  <si>
+    <t>LEARNING CENTER</t>
+  </si>
+  <si>
+    <t>img/learning_center.jpg</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>img/washroom.jpg</t>
+  </si>
+  <si>
+    <t>MOSQUE</t>
+  </si>
+  <si>
+    <t>img/mosque.jpg</t>
+  </si>
+  <si>
+    <t>NEW HOSTEL</t>
+  </si>
+  <si>
+    <t>img/new_hostel.jpg</t>
+  </si>
+  <si>
+    <t>OLD HOSTEL</t>
+  </si>
+  <si>
+    <t>img/old_hostel.jpg</t>
+  </si>
+  <si>
+    <t>sport complex</t>
+  </si>
+  <si>
+    <t>img/sports_complex.jpg</t>
+  </si>
+  <si>
+    <t>SRC COMPLEX</t>
+  </si>
+  <si>
+    <t>img/complex.jpg</t>
+  </si>
+  <si>
+    <t>CANTEEN</t>
+  </si>
+  <si>
+    <t>img/canteen.jpg</t>
+  </si>
+  <si>
+    <t>AUDITORIUM</t>
+  </si>
+  <si>
+    <t>img/audi.jpg</t>
+  </si>
+  <si>
+    <t>NEW IT BUILDING</t>
+  </si>
+  <si>
+    <t>img/new_it.jpg</t>
+  </si>
+  <si>
+    <t>OTHER</t>
   </si>
 </sst>
 </file>
@@ -719,16 +782,16 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -753,6 +816,9 @@
       <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -762,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>5.5533114000000001</v>
+        <v>5.5535041999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.205707</v>
+        <v>-0.20567659999999999</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -773,7 +839,9 @@
       <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -783,10 +851,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>5.5687857999999997</v>
+        <v>5.5535106000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.2797772</v>
+        <v>-0.2050843</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -794,7 +862,9 @@
       <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -816,7 +886,9 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -837,97 +909,239 @@
       <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.5535041999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.20564450000000001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.5534338999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-0.20541570000000001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5.5530805000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-0.20574110000000001</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.5529000000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-0.20607</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.5524100000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-0.20604</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.5520639999999997</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-0.205929</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5.5532234000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-0.20579449999999999</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.5529023999999998</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-0.20570540000000001</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5.5534467999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-0.20619170000000001</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5.5535541000000004</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-0.2063403</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
@@ -1372,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D02CA5E-5701-4112-9A13-80A549E559A2}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="A22:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,6 +2483,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A47:A65"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B15"/>
@@ -2276,15 +2499,6 @@
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A47:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2292,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDAFEEA-5A98-4770-8B19-FE7DEB3BA32A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,8 +2590,16 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B65:B1048576 B1:B3 B6:B9">
+  <conditionalFormatting sqref="B65:B1048576 B1:B3 B6:B10">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C1048576 C1:C9">
